--- a/wwwroot/Reports/report_delivery.xlsx
+++ b/wwwroot/Reports/report_delivery.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Поставка</t>
   </si>
@@ -49,16 +49,19 @@
     <t>Дата оформления</t>
   </si>
   <si>
-    <t>05.04.2023 0:00:00</t>
+    <t>27.04.2023 0:00:00</t>
   </si>
   <si>
-    <t>j-20126</t>
+    <t>j-201</t>
   </si>
   <si>
     <t>Дата доставки</t>
   </si>
   <si>
-    <t>06.04.2023 0:00:00</t>
+    <t>15.04.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>80-p</t>
   </si>
   <si>
     <t>Сумма поставки</t>
@@ -215,13 +218,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="13.8">
@@ -231,17 +234,25 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>150</v>
+      </c>
+      <c r="G4" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" ht="13.8">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>

--- a/wwwroot/Reports/report_delivery.xlsx
+++ b/wwwroot/Reports/report_delivery.xlsx
@@ -31,7 +31,7 @@
     <t>Поставщик</t>
   </si>
   <si>
-    <t>ООО КАК ТАК</t>
+    <t>ООО ПЛАСТИНКИ</t>
   </si>
   <si>
     <t>Номер</t>
@@ -49,19 +49,19 @@
     <t>Дата оформления</t>
   </si>
   <si>
-    <t>27.04.2023 0:00:00</t>
+    <t>23.05.2023 0:00:00</t>
   </si>
   <si>
-    <t>j-201</t>
+    <t>о-12</t>
   </si>
   <si>
     <t>Дата доставки</t>
   </si>
   <si>
-    <t>15.04.2023 0:00:00</t>
+    <t>04.06.2023 0:00:00</t>
   </si>
   <si>
-    <t>80-p</t>
+    <t>502as</t>
   </si>
   <si>
     <t>Сумма поставки</t>
@@ -218,13 +218,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G3" s="5">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" ht="13.8">
@@ -238,13 +238,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G4" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" ht="13.8">
@@ -252,7 +252,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
